--- a/formats/excel/SSR/2011/Formats RHA 11.xlsx
+++ b/formats/excel/SSR/2011/Formats RHA 11.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2011/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C98D90-508B-E54A-8AE5-3581302F3B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>libelle</t>
   </si>
@@ -316,14 +322,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,353 +331,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -685,307 +348,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1246,21 +628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.3733333333333" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1460,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1600,7 +981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1640,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1660,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1700,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1760,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1780,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1800,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1820,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1840,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1860,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1900,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1920,7 +1301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1940,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1960,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1980,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2020,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2040,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2060,7 +1441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2080,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2100,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2120,7 +1501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2140,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2160,7 +1541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2180,13 +1561,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>98</v>
       </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
       <c r="D47">
         <v>144</v>
       </c>
@@ -2198,7 +1576,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>